--- a/Rekap Ikut Wisuda 2024-4.xlsx
+++ b/Rekap Ikut Wisuda 2024-4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdeaCentre 300 20ISH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA2FD46-5E2C-476E-BFE3-CE25AF7D039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17005721-1478-4B7D-A8D5-E5835C0C45ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +490,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -792,7 +798,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1074,16 +1080,67 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,55 +1164,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1437,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1496,16 +1508,16 @@
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="116">
+      <c r="A6" s="99">
         <v>2</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="103">
         <v>9</v>
       </c>
-      <c r="D6" s="119"/>
+      <c r="D6" s="102"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6">
@@ -1556,10 +1568,10 @@
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="115"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="92"/>
       <c r="D11" s="93"/>
     </row>
@@ -1631,16 +1643,16 @@
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="116">
+      <c r="A18" s="99">
         <v>2</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="101">
         <v>66</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="102"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6">
@@ -1679,22 +1691,22 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="116">
+      <c r="A22" s="99">
         <v>6</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="101">
         <v>500</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="102"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="101">
+      <c r="A23" s="114">
         <v>7</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="122" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="21">
@@ -1703,8 +1715,8 @@
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="106"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="25"/>
       <c r="D24" s="9"/>
     </row>
@@ -1731,16 +1743,16 @@
       <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="116">
+      <c r="A27" s="99">
         <v>9</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="120">
+      <c r="C27" s="103">
         <v>120</v>
       </c>
-      <c r="D27" s="121"/>
+      <c r="D27" s="104"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6">
@@ -1849,24 +1861,24 @@
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="125">
+      <c r="A38" s="108">
         <v>2</v>
       </c>
-      <c r="B38" s="124" t="s">
+      <c r="B38" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="119"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="102"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="125"/>
-      <c r="B39" s="117" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="120">
+      <c r="C39" s="103">
         <v>1</v>
       </c>
-      <c r="D39" s="119"/>
+      <c r="D39" s="102"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="22">
@@ -2017,62 +2029,62 @@
       <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="123">
+      <c r="A55" s="106">
         <v>6</v>
       </c>
-      <c r="B55" s="124" t="s">
+      <c r="B55" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="121"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="104"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="125"/>
-      <c r="B56" s="117" t="s">
+      <c r="A56" s="108"/>
+      <c r="B56" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="118">
+      <c r="C56" s="101">
         <v>6</v>
       </c>
-      <c r="D56" s="119"/>
+      <c r="D56" s="102"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="125"/>
-      <c r="B57" s="117" t="s">
+      <c r="A57" s="108"/>
+      <c r="B57" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="118">
+      <c r="C57" s="101">
         <v>1</v>
       </c>
-      <c r="D57" s="119"/>
+      <c r="D57" s="102"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="125"/>
-      <c r="B58" s="117" t="s">
+      <c r="A58" s="108"/>
+      <c r="B58" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="118">
+      <c r="C58" s="101">
         <v>6</v>
       </c>
-      <c r="D58" s="119"/>
+      <c r="D58" s="102"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="125"/>
-      <c r="B59" s="117" t="s">
+      <c r="A59" s="108"/>
+      <c r="B59" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="119"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="102"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="126"/>
-      <c r="B60" s="117" t="s">
+      <c r="A60" s="109"/>
+      <c r="B60" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="118">
+      <c r="C60" s="101">
         <v>10</v>
       </c>
-      <c r="D60" s="119"/>
+      <c r="D60" s="102"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="22">
@@ -2286,10 +2298,10 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="101">
+      <c r="A82" s="114">
         <v>1</v>
       </c>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="124" t="s">
         <v>63</v>
       </c>
       <c r="C82" s="45">
@@ -2298,8 +2310,8 @@
       <c r="D82" s="46"/>
     </row>
     <row r="83" spans="1:4" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="102"/>
-      <c r="B83" s="106"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="123"/>
       <c r="C83" s="25"/>
       <c r="D83" s="47"/>
     </row>
@@ -2392,18 +2404,18 @@
       <c r="D91" s="20"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="103">
+      <c r="A92" s="120">
         <v>1</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="125" t="s">
         <v>70</v>
       </c>
       <c r="C92" s="45"/>
       <c r="D92" s="56"/>
     </row>
     <row r="93" spans="1:4" hidden="1">
-      <c r="A93" s="104"/>
-      <c r="B93" s="109"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="126"/>
       <c r="C93" s="25"/>
       <c r="D93" s="57"/>
     </row>
@@ -2630,23 +2642,23 @@
       <c r="D113" s="78"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="101">
+      <c r="A114" s="114">
         <v>9</v>
       </c>
       <c r="B114" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="99">
+      <c r="C114" s="118">
         <v>2</v>
       </c>
       <c r="D114" s="80"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="102"/>
+      <c r="A115" s="115"/>
       <c r="B115" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="100"/>
+      <c r="C115" s="119"/>
       <c r="D115" s="82"/>
     </row>
     <row r="116" spans="1:4">
@@ -2699,12 +2711,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A92:A93"/>
@@ -2712,6 +2718,12 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
